--- a/biology/Zoologie/Chaetodon_melanopus/Chaetodon_melanopus.xlsx
+++ b/biology/Zoologie/Chaetodon_melanopus/Chaetodon_melanopus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coradion melanopus · Coradion à deux taches
-Coradion melanopus, communément nommé Coradion à deux taches[2], est une espèce de poisson marin de la famille des Chaetodontidae.
+Coradion melanopus, communément nommé Coradion à deux taches, est une espèce de poisson marin de la famille des Chaetodontidae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille maximale du C. melanopus est de 15 cm [1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille maximale du C. melanopus est de 15 cm .
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Coradion à deux taches est présent dans les eaux tropicales de la zone centrale de la région Indo-Pacifique soit de l'Indonésie à la Papouasie-Nouvelle-Guinée et aux Philippines[1],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Coradion à deux taches est présent dans les eaux tropicales de la zone centrale de la région Indo-Pacifique soit de l'Indonésie à la Papouasie-Nouvelle-Guinée et aux Philippines,.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Coradion melanopus (Cuvier, 1831)[4].
-Coradion melanopus a pour synonymes[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Coradion melanopus (Cuvier, 1831).
+Coradion melanopus a pour synonymes :
 Chaetodon melanopus Cuvier, 1831
 Tetragnoptrus melanopus (Cuvier, 1831)</t>
         </is>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>G. Cuvier et A Valenciennes, Histoire naturelle des poissons., t. septième. Livre septième. Des Squamipennes. Livre huitième. Des poissons à pharyngiens labyrinthiformes, Paris, F. G. Levrault, 1831, 531 p. v. 7: i-xxix + 1-531, Pls. 170-208. [Cuvier authored pp. 1-440, Valenciennes 441-531. i-xxii + 1-399 in Strasbourg edition.]</t>
         </is>
